--- a/DeskOps_Backend/Tabelas Banco de dados.xlsx
+++ b/DeskOps_Backend/Tabelas Banco de dados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Desktop\Projeto-Integrador-4---DeskOps\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsadm\Desktop\pedro\Projeto-Integrador4_DeskOps\DeskOps_Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4150C9C7-3E6A-40D6-8A80-09054600B393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988D8660-39DC-43E0-B4DB-2ED3A998772C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{FFEF2987-F367-4794-9A99-EFB20DF468E5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
   <si>
     <t>User_Id</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>boolean</t>
+  </si>
+  <si>
+    <t>bairro</t>
   </si>
 </sst>
 </file>
@@ -335,9 +338,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -346,6 +346,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,9 +367,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -404,7 +407,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -510,7 +513,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -652,7 +655,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -663,7 +666,7 @@
   <dimension ref="B2:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,20 +679,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="2"/>
@@ -766,21 +769,32 @@
       </c>
       <c r="E9" s="3"/>
     </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="2"/>
@@ -845,20 +859,20 @@
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="20" t="s">
         <v>21</v>
       </c>
     </row>
@@ -920,7 +934,7 @@
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="15" t="s">
         <v>35</v>
       </c>
@@ -974,20 +988,20 @@
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="20" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1054,20 +1068,20 @@
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="20" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1127,20 +1141,20 @@
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="20" t="s">
         <v>21</v>
       </c>
     </row>
